--- a/Bench_mark.xlsx
+++ b/Bench_mark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyme\group_ACCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F9BD7F-E4C3-459C-BB89-7ECC99A9D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F03A91F-C897-49C5-A957-6B98313DF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{EDF3E4C2-A6E2-402B-9A2C-358DCC18D7CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EDF3E4C2-A6E2-402B-9A2C-358DCC18D7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="serial_temp" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Input number</t>
+    <t>all units in seconds</t>
   </si>
   <si>
-    <t>real</t>
+    <t>Number of elements</t>
   </si>
   <si>
-    <t>user</t>
+    <t>seconds</t>
   </si>
   <si>
-    <t>sys</t>
+    <t>Real time</t>
   </si>
   <si>
-    <t>munmap_chunk(): invalid pointer</t>
+    <t>User time</t>
   </si>
   <si>
-    <t>Aborted (core dumped)</t>
+    <t>Systerm time</t>
   </si>
 </sst>
 </file>
@@ -79,15 +79,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,17 +101,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -124,6 +160,2831 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> place of each test in time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27009011373578296"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233.666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63C5-4773-BD8B-F4F2A3309C49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63C5-4773-BD8B-F4F2A3309C49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Systerm time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63C5-4773-BD8B-F4F2A3309C49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1038693808"/>
+        <c:axId val="1038702928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1038693808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038702928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1038702928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038693808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16071646227199102"/>
+          <c:y val="0.11442147856517937"/>
+          <c:w val="0.76067235691014778"/>
+          <c:h val="0.72299321959755025"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233.666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A2C-4B64-9423-70068622942A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8ABF-40F1-993D-0C2B11FCA084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Systerm time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8ABF-40F1-993D-0C2B11FCA084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1396652479"/>
+        <c:axId val="1213780719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1396652479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46704768153980752"/>
+              <c:y val="0.93036624935362022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1213780719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1213780719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9543088363954502E-2"/>
+              <c:y val="0.29374052066647965"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396652479"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16576381035563478"/>
+          <c:y val="0.11707314962327874"/>
+          <c:w val="0.36993600377176883"/>
+          <c:h val="0.28462160916622253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207507</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255131</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E6CF98-F97B-1C3F-C80D-EACB8DF53671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221115</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E502C974-D6AE-D79A-CACF-543895A0AD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,12 +3302,264 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E302A7BF-9DA7-452C-A1CF-799BCA638333}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -455,6 +3568,7 @@
     <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.265625" customWidth="1"/>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -465,315 +3579,359 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.4</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1E-3</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>1E-3</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>1E-3</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1E-3</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>250</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.01</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>1E-3</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>512</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>1000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>5000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.109</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
         <v>10000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.19</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.107</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.02</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
         <v>200000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>3.1280000000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>2.1850000000000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.185</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
         <v>1000000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>11.962</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>10.852</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.74399999999999999</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
         <v>10000000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>118.559</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>108.096</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>8.5660000000000007</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
         <v>20000000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>233.666</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>216.489</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>16.399999999999999</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -782,5 +3940,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bench_mark.xlsx
+++ b/Bench_mark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyme\group_ACCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmazz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F03A91F-C897-49C5-A957-6B98313DF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE810A91-B915-4AA3-8AC6-83E2AFA312BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EDF3E4C2-A6E2-402B-9A2C-358DCC18D7CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{EDF3E4C2-A6E2-402B-9A2C-358DCC18D7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="serial_temp" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>all units in seconds</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Systerm time</t>
+  </si>
+  <si>
+    <t>natural log of number of elements</t>
+  </si>
+  <si>
+    <t>parallel benchmark for 6 processors</t>
+  </si>
+  <si>
+    <t>serial code</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +151,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -165,7 +177,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -240,7 +252,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -255,7 +267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$C$2</c:f>
+              <c:f>serial_temp!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$C$3:$C$17</c:f>
+              <c:f>serial_temp!$D$3:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -406,7 +418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$D$2</c:f>
+              <c:f>serial_temp!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$D$3:$D$17</c:f>
+              <c:f>serial_temp!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -557,7 +569,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$E$2</c:f>
+              <c:f>serial_temp!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,7 +656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$E$3:$E$17</c:f>
+              <c:f>serial_temp!$F$3:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -893,7 +905,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -905,7 +917,73 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> benchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -926,7 +1004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$C$2</c:f>
+              <c:f>serial_temp!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -957,85 +1035,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:f>serial_temp!$C$4:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>5.521460917862246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>6.2146080984221914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>6.2383246250395077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>512</c:v>
+                  <c:v>6.9077552789821368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8.5171931914162382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5000</c:v>
+                  <c:v>9.2103403719761836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>12.206072645530174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200000</c:v>
+                  <c:v>13.815510557964274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000000</c:v>
+                  <c:v>16.11809565095832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20000000</c:v>
+                  <c:v>16.811242831518264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$C$3:$C$17</c:f>
+              <c:f>serial_temp!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2E-2</c:v>
@@ -1044,36 +1105,33 @@
                   <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>0.109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.109</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1280000000000001</c:v>
+                  <c:v>11.962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.962</c:v>
+                  <c:v>118.559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118.559</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>233.666</c:v>
                 </c:pt>
               </c:numCache>
@@ -1091,7 +1149,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$D$2</c:f>
+              <c:f>serial_temp!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1122,123 +1180,103 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:f>serial_temp!$C$4:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>5.521460917862246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>6.2146080984221914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>6.2383246250395077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>512</c:v>
+                  <c:v>6.9077552789821368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8.5171931914162382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5000</c:v>
+                  <c:v>9.2103403719761836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>12.206072645530174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200000</c:v>
+                  <c:v>13.815510557964274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000000</c:v>
+                  <c:v>16.11809565095832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20000000</c:v>
+                  <c:v>16.811242831518264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$D$3:$D$17</c:f>
+              <c:f>serial_temp!$E$4:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.107</c:v>
+                  <c:v>2.1850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1850000000000001</c:v>
+                  <c:v>10.852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.852</c:v>
+                  <c:v>108.096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.096</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>216.489</c:v>
                 </c:pt>
               </c:numCache>
@@ -1256,7 +1294,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>serial_temp!$E$2</c:f>
+              <c:f>serial_temp!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,82 +1325,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>serial_temp!$B$3:$B$17</c:f>
+              <c:f>serial_temp!$C$4:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.3025850929940459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>4.6051701859880918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>5.521460917862246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>6.2146080984221914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500</c:v>
+                  <c:v>6.2383246250395077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>512</c:v>
+                  <c:v>6.9077552789821368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8.5171931914162382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5000</c:v>
+                  <c:v>9.2103403719761836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>12.206072645530174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200000</c:v>
+                  <c:v>13.815510557964274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000000</c:v>
+                  <c:v>16.11809565095832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20000000</c:v>
+                  <c:v>16.811242831518264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>serial_temp!$E$3:$E$17</c:f>
+              <c:f>serial_temp!$F$4:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1E-3</c:v>
@@ -1374,13 +1395,13 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.0000000000000001E-3</c:v>
@@ -1389,21 +1410,18 @@
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.185</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74399999999999999</c:v>
+                  <c:v>8.5660000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5660000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>16.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1440,10 +1458,24 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1451,14 +1483,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t>ln(</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-IE" baseline="0"/>
-                  <a:t> (s)</a:t>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Elements)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1466,8 +1501,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46704768153980752"/>
-              <c:y val="0.93036624935362022"/>
+              <c:x val="0.33738520270645544"/>
+              <c:y val="0.93036636195029943"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1482,17 +1517,31 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1572,39 +1621,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Number of Elements</a:t>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>time</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-IE"/>
               </a:p>
             </c:rich>
@@ -1613,8 +1636,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9543088363954502E-2"/>
-              <c:y val="0.29374052066647965"/>
+              <c:x val="3.7695861906737717E-2"/>
+              <c:y val="0.4029569383888158"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1707,26 +1730,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16576381035563478"/>
           <c:y val="0.11707314962327874"/>
-          <c:w val="0.36993600377176883"/>
-          <c:h val="0.28462160916622253"/>
+          <c:w val="0.34659675643534599"/>
+          <c:h val="0.28462171311942991"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1764,6 +1775,891 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> benchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15081714785651792"/>
+          <c:y val="0.125"/>
+          <c:w val="0.79207174103237099"/>
+          <c:h val="0.67926655001458147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.521460917862246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2146080984221914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2383246250395077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9077552789821368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5171931914162382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2103403719761836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.206072645530174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.815510557964274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.11809565095832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.811242831518264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$L$3:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124.276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>241.297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2918-4BDF-9EE1-E4FFBFCDF9FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.521460917862246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2146080984221914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2383246250395077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9077552789821368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5171931914162382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2103403719761836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.206072645530174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.815510557964274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.11809565095832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.811242831518264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$M$3:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>692.58799999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1354.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2918-4BDF-9EE1-E4FFBFCDF9FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>serial_temp!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Systerm time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>serial_temp!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.521460917862246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2146080984221914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2383246250395077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9077552789821368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5171931914162382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2103403719761836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.206072645530174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.815510557964274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.11809565095832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.811242831518264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>serial_temp!$N$3:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2918-4BDF-9EE1-E4FFBFCDF9FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1675982527"/>
+        <c:axId val="1675967167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1675982527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ln(Number of Elements)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3878182414698163"/>
+              <c:y val="0.90240667833187516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675967167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1675967167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="0.3785221638961796"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675982527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18351356080489942"/>
+          <c:y val="0.15335593467483227"/>
+          <c:w val="0.4746395450568679"/>
+          <c:h val="0.11979221347331585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1878,6 +2774,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2910,20 +3846,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>207507</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50344</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1155988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>255131</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>689181</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2950,16 +4402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26002</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>221115</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>74840</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197001</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2979,6 +4431,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40994</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>843184</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53373</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9E9DC0-A32D-78C5-120E-83D04203F11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3554,384 +5042,1007 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E302A7BF-9DA7-452C-A1CF-799BCA638333}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="e">
+        <f>LN(J3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.20499999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
+        <f>LN(B4)</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K17" si="0">LN(J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.26300000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
+        <f t="shared" ref="C5:C17" si="1">LN(B5)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D5" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.214</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="D6" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.214</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.29099999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>250</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5.521460917862246</v>
+      </c>
+      <c r="D8" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>0.01</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>250</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5.521460917862246</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.24099999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>500</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6.2146080984221914</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>500</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6.2146080984221914</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.26700000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>512</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>6.2383246250395077</v>
+      </c>
+      <c r="D10" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>512</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6.2383246250395077</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>1000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="D11" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>5000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>8.5171931914162382</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.109</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>8.5171931914162382</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.622</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.24399999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>10000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.19</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>0.107</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>0.02</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.27700000000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>200000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="D14" s="3">
         <v>3.1280000000000001</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>2.1850000000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.185</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>12.206072645530174</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.181</v>
+      </c>
+      <c r="M14" s="3">
+        <v>17.196999999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.64900000000000002</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>1000000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="D15" s="3">
         <v>11.962</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>10.852</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="L15" s="3">
+        <v>17.759</v>
+      </c>
+      <c r="M15" s="3">
+        <v>80.08</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.3149999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>10000000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>16.11809565095832</v>
+      </c>
+      <c r="D16" s="3">
         <v>118.559</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>108.096</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>8.5660000000000007</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>16.11809565095832</v>
+      </c>
+      <c r="L16" s="3">
+        <v>124.276</v>
+      </c>
+      <c r="M16" s="3">
+        <v>692.58799999999997</v>
+      </c>
+      <c r="N16" s="3">
+        <v>17.576000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>20000000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>16.811242831518264</v>
+      </c>
+      <c r="D17" s="3">
         <v>233.666</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>216.489</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>16.811242831518264</v>
+      </c>
+      <c r="L17" s="3">
+        <v>241.297</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1354.14</v>
+      </c>
+      <c r="N17" s="3">
+        <v>33.74</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
